--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/63_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/63_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
+  </si>
+  <si>
+    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -544,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -656,10 +659,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -668,43 +674,43 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05027127526523962</v>
+        <v>0.3219341657528199</v>
       </c>
       <c r="E2">
-        <v>0.1222581803075866</v>
+        <v>0.05016829091543798</v>
       </c>
       <c r="F2">
-        <v>0.4464464645675328</v>
+        <v>0.2703920883591945</v>
       </c>
       <c r="G2">
-        <v>0.1221089397079538</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01700147511216995</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01432126311808001</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0120824513455486</v>
       </c>
       <c r="K2">
-        <v>0.006529660145584581</v>
+        <v>0.03739364745854439</v>
       </c>
       <c r="L2">
-        <v>0.00108249413915575</v>
+        <v>0.03079166816463683</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02672237695334316</v>
       </c>
       <c r="N2">
-        <v>0.0009129630852946645</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.007392084423924092</v>
+        <v>0.1163675966391072</v>
       </c>
       <c r="P2">
-        <v>0.05450611437748384</v>
+        <v>0.0372790748304479</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -719,54 +725,57 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.006117174696658097</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.002165203516593109</v>
       </c>
       <c r="W2">
-        <v>0.02601491857744207</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.02007506437053477</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.001762391949671841</v>
       </c>
       <c r="AA2">
-        <v>0.03870125088835333</v>
+        <v>0.02008364670442966</v>
       </c>
       <c r="AB2">
-        <v>0.01350321931201975</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.02031645418555763</v>
+        <v>0.003624008642117045</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.02117812081397935</v>
       </c>
       <c r="AE2">
-        <v>0.02690872026750446</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.0356628003923535</v>
       </c>
       <c r="AG2">
-        <v>0.01164945814858224</v>
+        <v>0.005467580390789945</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+        <v>0.000807712474327054</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -775,46 +784,46 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05026589338730262</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1590547699181399</v>
+        <v>0.3703583229273735</v>
       </c>
       <c r="F3">
-        <v>0.3563179814252341</v>
+        <v>0.1631712539261008</v>
       </c>
       <c r="G3">
-        <v>0.1745522467868859</v>
+        <v>0.1152125307147691</v>
       </c>
       <c r="H3">
-        <v>0.0224624715379248</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02200306747644844</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.007983512738412414</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.04101440397033009</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.02891659027016313</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.02799846500541998</v>
+        <v>0.163629432573798</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.01272697452192889</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -832,48 +841,51 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.02974344171050223</v>
+        <v>0.005521313301167433</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.02506773408396289</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.03663759912565145</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.01435563589175506</v>
+        <v>0.03690274762409462</v>
       </c>
       <c r="AC3">
-        <v>0.02150125693530683</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.03487617479415477</v>
+        <v>0.01555903256089191</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.01717974918289883</v>
+        <v>0.03737799628653201</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.009609401322850385</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -882,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2943213283311363</v>
+        <v>0.351681390018422</v>
       </c>
       <c r="E4">
-        <v>0.05230181659181025</v>
+        <v>0.07948132596795318</v>
       </c>
       <c r="F4">
-        <v>0.3597687889456396</v>
+        <v>0.1929299664034869</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.007183637722097465</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -903,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.03910923823546811</v>
       </c>
       <c r="L4">
-        <v>0.02926172633794116</v>
+        <v>0.02033594174049322</v>
       </c>
       <c r="M4">
-        <v>0.0007519634961031186</v>
+        <v>0.01985025267801086</v>
       </c>
       <c r="N4">
-        <v>0.003963267529695806</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.09286479354853734</v>
+        <v>0.1504108237812406</v>
       </c>
       <c r="P4">
-        <v>0.02807313113895594</v>
+        <v>0.03310001597979112</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -933,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.005410798310585344</v>
       </c>
       <c r="V4">
-        <v>0.05632289886578625</v>
+        <v>0.007065870830632974</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -951,25 +963,25 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.03898213655671936</v>
+        <v>0.03773588598285681</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.005305971531258637</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01304209320757299</v>
+        <v>0.02480491684602748</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.002570490091028792</v>
       </c>
       <c r="AF4">
-        <v>0.0137459660589164</v>
+        <v>0.0261938456494182</v>
       </c>
       <c r="AG4">
-        <v>0.004110480137829569</v>
+        <v>0.009319237484584448</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -977,10 +989,13 @@
       <c r="AI4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -989,43 +1004,43 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1729002386830045</v>
+        <v>0.3380277035844323</v>
       </c>
       <c r="E5">
-        <v>0.0076487841857635</v>
+        <v>0.08147368607422227</v>
       </c>
       <c r="F5">
-        <v>0.5570038134192203</v>
+        <v>0.2367866371737178</v>
       </c>
       <c r="G5">
-        <v>0.04274474983070176</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0413738049007074</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.004144928657331091</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00876010005615473</v>
       </c>
       <c r="K5">
-        <v>0.01854448849737875</v>
+        <v>0.02476292625069484</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.02562597837699567</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01943792321522947</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.02419996875679432</v>
+        <v>0.1310047672829021</v>
       </c>
       <c r="P5">
-        <v>0.02979261811386093</v>
+        <v>0.02742506082519433</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1040,43 +1055,43 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.004954031855220938</v>
       </c>
       <c r="V5">
-        <v>0.001474395082352065</v>
+        <v>0.005159900964384072</v>
       </c>
       <c r="W5">
-        <v>0.01600436991989613</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.01544338806221371</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.03615203805171234</v>
+        <v>0.03228996958395505</v>
       </c>
       <c r="AB5">
-        <v>0.003994287981948967</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01867782648321598</v>
+        <v>0.002307123372644215</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.02140490148381819</v>
       </c>
       <c r="AE5">
-        <v>0.009900299373898488</v>
+        <v>0.0006186246446803613</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.02860351995163336</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.01135714530412004</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1084,10 +1099,13 @@
       <c r="AI5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1096,43 +1114,43 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03304963354092785</v>
+        <v>0.3477066664273917</v>
       </c>
       <c r="E6">
-        <v>0.1714022291684707</v>
+        <v>0.09812133786394617</v>
       </c>
       <c r="F6">
-        <v>0.3412580169285142</v>
+        <v>0.1834716630930048</v>
       </c>
       <c r="G6">
-        <v>0.1657837823912913</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0467640209035246</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.03306616298755186</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.006095488991984423</v>
       </c>
       <c r="K6">
-        <v>0.06376606877792257</v>
+        <v>0.03818933194430715</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.01945394855123956</v>
       </c>
       <c r="M6">
-        <v>0.01848318056051693</v>
+        <v>0.02808146982914695</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1439891154175712</v>
       </c>
       <c r="P6">
-        <v>0.02013165879070142</v>
+        <v>0.01435432064128216</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1147,48 +1165,51 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.01098339096457451</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.007119834683461393</v>
       </c>
       <c r="W6">
-        <v>0.02091671466191082</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.01092779432766532</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.0007646935414614007</v>
       </c>
       <c r="AA6">
-        <v>0.02044461078705474</v>
+        <v>0.0378736751935807</v>
       </c>
       <c r="AB6">
-        <v>0.01829069457430881</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0158530554669128</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.02863277977070965</v>
       </c>
       <c r="AE6">
-        <v>0.009580357607921719</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.03360148671774099</v>
       </c>
       <c r="AG6">
-        <v>0.01028201852480468</v>
+        <v>0.0007980933851401871</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
+        <v>0.0007627029834570354</v>
+      </c>
+      <c r="AJ6">
         <v>0</v>
       </c>
     </row>
@@ -1199,15 +1220,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1311,10 +1332,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1323,105 +1347,108 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05027127526523962</v>
+        <v>0.3219341657528199</v>
       </c>
       <c r="E2">
-        <v>0.1725294555728262</v>
+        <v>0.3721024566682579</v>
       </c>
       <c r="F2">
-        <v>0.6189759201403591</v>
+        <v>0.6424945450274524</v>
       </c>
       <c r="G2">
-        <v>0.7410848598483128</v>
+        <v>0.6424945450274524</v>
       </c>
       <c r="H2">
-        <v>0.7580863349604828</v>
+        <v>0.6424945450274524</v>
       </c>
       <c r="I2">
-        <v>0.7724075980785629</v>
+        <v>0.6424945450274524</v>
       </c>
       <c r="J2">
-        <v>0.7724075980785629</v>
+        <v>0.654576996373001</v>
       </c>
       <c r="K2">
-        <v>0.7789372582241474</v>
+        <v>0.6919706438315454</v>
       </c>
       <c r="L2">
-        <v>0.7800197523633031</v>
+        <v>0.7227623119961822</v>
       </c>
       <c r="M2">
-        <v>0.7800197523633031</v>
+        <v>0.7494846889495254</v>
       </c>
       <c r="N2">
-        <v>0.7809327154485978</v>
+        <v>0.7494846889495254</v>
       </c>
       <c r="O2">
-        <v>0.7883247998725219</v>
+        <v>0.8658522855886325</v>
       </c>
       <c r="P2">
-        <v>0.8428309142500058</v>
+        <v>0.9031313604190804</v>
       </c>
       <c r="Q2">
-        <v>0.8428309142500058</v>
+        <v>0.9031313604190804</v>
       </c>
       <c r="R2">
-        <v>0.8428309142500058</v>
+        <v>0.9031313604190804</v>
       </c>
       <c r="S2">
-        <v>0.8428309142500058</v>
+        <v>0.9031313604190804</v>
       </c>
       <c r="T2">
-        <v>0.8428309142500058</v>
+        <v>0.9031313604190804</v>
       </c>
       <c r="U2">
-        <v>0.8428309142500058</v>
+        <v>0.9092485351157384</v>
       </c>
       <c r="V2">
-        <v>0.8428309142500058</v>
+        <v>0.9114137386323315</v>
       </c>
       <c r="W2">
-        <v>0.8688458328274479</v>
+        <v>0.9114137386323315</v>
       </c>
       <c r="X2">
-        <v>0.8688458328274479</v>
+        <v>0.9114137386323315</v>
       </c>
       <c r="Y2">
-        <v>0.8889208971979826</v>
+        <v>0.9114137386323315</v>
       </c>
       <c r="Z2">
-        <v>0.8889208971979826</v>
+        <v>0.9131761305820034</v>
       </c>
       <c r="AA2">
-        <v>0.9276221480863359</v>
+        <v>0.9332597772864331</v>
       </c>
       <c r="AB2">
-        <v>0.9411253673983557</v>
+        <v>0.9332597772864331</v>
       </c>
       <c r="AC2">
-        <v>0.9614418215839133</v>
+        <v>0.9368837859285502</v>
       </c>
       <c r="AD2">
-        <v>0.9614418215839133</v>
+        <v>0.9580619067425296</v>
       </c>
       <c r="AE2">
-        <v>0.9883505418514178</v>
+        <v>0.9580619067425296</v>
       </c>
       <c r="AF2">
-        <v>0.9883505418514178</v>
+        <v>0.993724707134883</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.999192287525673</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.999192287525673</v>
       </c>
       <c r="AI2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1430,105 +1457,108 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05026589338730262</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2093206633054425</v>
+        <v>0.3703583229273735</v>
       </c>
       <c r="F3">
-        <v>0.5656386447306766</v>
+        <v>0.5335295768534742</v>
       </c>
       <c r="G3">
-        <v>0.7401908915175625</v>
+        <v>0.6487421075682434</v>
       </c>
       <c r="H3">
-        <v>0.7626533630554873</v>
+        <v>0.6487421075682434</v>
       </c>
       <c r="I3">
-        <v>0.7846564305319357</v>
+        <v>0.6487421075682434</v>
       </c>
       <c r="J3">
-        <v>0.7846564305319357</v>
+        <v>0.6487421075682434</v>
       </c>
       <c r="K3">
-        <v>0.7926399432703481</v>
+        <v>0.6487421075682434</v>
       </c>
       <c r="L3">
-        <v>0.7926399432703481</v>
+        <v>0.6897565115385734</v>
       </c>
       <c r="M3">
-        <v>0.7926399432703481</v>
+        <v>0.6897565115385734</v>
       </c>
       <c r="N3">
-        <v>0.7926399432703481</v>
+        <v>0.7186731018087366</v>
       </c>
       <c r="O3">
-        <v>0.7926399432703481</v>
+        <v>0.7186731018087366</v>
       </c>
       <c r="P3">
-        <v>0.8206384082757682</v>
+        <v>0.8823025343825346</v>
       </c>
       <c r="Q3">
-        <v>0.8206384082757682</v>
+        <v>0.8950295089044635</v>
       </c>
       <c r="R3">
-        <v>0.8206384082757682</v>
+        <v>0.8950295089044635</v>
       </c>
       <c r="S3">
-        <v>0.8206384082757682</v>
+        <v>0.8950295089044635</v>
       </c>
       <c r="T3">
-        <v>0.8206384082757682</v>
+        <v>0.8950295089044635</v>
       </c>
       <c r="U3">
-        <v>0.8206384082757682</v>
+        <v>0.8950295089044635</v>
       </c>
       <c r="V3">
-        <v>0.8206384082757682</v>
+        <v>0.8950295089044635</v>
       </c>
       <c r="W3">
-        <v>0.8503818499862704</v>
+        <v>0.900550822205631</v>
       </c>
       <c r="X3">
-        <v>0.8503818499862704</v>
+        <v>0.900550822205631</v>
       </c>
       <c r="Y3">
-        <v>0.8754495840702333</v>
+        <v>0.900550822205631</v>
       </c>
       <c r="Z3">
-        <v>0.8754495840702333</v>
+        <v>0.900550822205631</v>
       </c>
       <c r="AA3">
-        <v>0.9120871831958848</v>
+        <v>0.900550822205631</v>
       </c>
       <c r="AB3">
-        <v>0.9264428190876398</v>
+        <v>0.9374535698297256</v>
       </c>
       <c r="AC3">
-        <v>0.9479440760229466</v>
+        <v>0.9374535698297256</v>
       </c>
       <c r="AD3">
-        <v>0.9479440760229466</v>
+        <v>0.9374535698297256</v>
       </c>
       <c r="AE3">
-        <v>0.9828202508171013</v>
+        <v>0.9530126023906175</v>
       </c>
       <c r="AF3">
-        <v>0.9828202508171013</v>
+        <v>0.9530126023906175</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9903905986771495</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1537,91 +1567,91 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2943213283311363</v>
+        <v>0.351681390018422</v>
       </c>
       <c r="E4">
-        <v>0.3466231449229466</v>
+        <v>0.4311627159863752</v>
       </c>
       <c r="F4">
-        <v>0.7063919338685862</v>
+        <v>0.624092682389862</v>
       </c>
       <c r="G4">
-        <v>0.7063919338685862</v>
+        <v>0.624092682389862</v>
       </c>
       <c r="H4">
-        <v>0.7135755715906837</v>
+        <v>0.624092682389862</v>
       </c>
       <c r="I4">
-        <v>0.7135755715906837</v>
+        <v>0.624092682389862</v>
       </c>
       <c r="J4">
-        <v>0.7135755715906837</v>
+        <v>0.624092682389862</v>
       </c>
       <c r="K4">
-        <v>0.7135755715906837</v>
+        <v>0.6632019206253301</v>
       </c>
       <c r="L4">
-        <v>0.7428372979286249</v>
+        <v>0.6835378623658234</v>
       </c>
       <c r="M4">
-        <v>0.7435892614247279</v>
+        <v>0.7033881150438342</v>
       </c>
       <c r="N4">
-        <v>0.7475525289544237</v>
+        <v>0.7033881150438342</v>
       </c>
       <c r="O4">
-        <v>0.8404173225029611</v>
+        <v>0.8537989388250748</v>
       </c>
       <c r="P4">
-        <v>0.868490453641917</v>
+        <v>0.886898954804866</v>
       </c>
       <c r="Q4">
-        <v>0.868490453641917</v>
+        <v>0.886898954804866</v>
       </c>
       <c r="R4">
-        <v>0.868490453641917</v>
+        <v>0.886898954804866</v>
       </c>
       <c r="S4">
-        <v>0.868490453641917</v>
+        <v>0.886898954804866</v>
       </c>
       <c r="T4">
-        <v>0.868490453641917</v>
+        <v>0.886898954804866</v>
       </c>
       <c r="U4">
-        <v>0.868490453641917</v>
+        <v>0.8923097531154514</v>
       </c>
       <c r="V4">
-        <v>0.9248133525077032</v>
+        <v>0.8993756239460843</v>
       </c>
       <c r="W4">
-        <v>0.9248133525077032</v>
+        <v>0.8993756239460843</v>
       </c>
       <c r="X4">
-        <v>0.9248133525077032</v>
+        <v>0.8993756239460843</v>
       </c>
       <c r="Y4">
-        <v>0.9248133525077032</v>
+        <v>0.8993756239460843</v>
       </c>
       <c r="Z4">
-        <v>0.9248133525077032</v>
+        <v>0.8993756239460843</v>
       </c>
       <c r="AA4">
-        <v>0.9637954890644226</v>
+        <v>0.9371115099289411</v>
       </c>
       <c r="AB4">
-        <v>0.9637954890644226</v>
+        <v>0.9371115099289411</v>
       </c>
       <c r="AC4">
-        <v>0.9691014605956813</v>
+        <v>0.9371115099289411</v>
       </c>
       <c r="AD4">
-        <v>0.9821435538032542</v>
+        <v>0.9619164267749686</v>
       </c>
       <c r="AE4">
-        <v>0.9821435538032542</v>
+        <v>0.9644869168659974</v>
       </c>
       <c r="AF4">
-        <v>0.9958895198621707</v>
+        <v>0.9906807625154156</v>
       </c>
       <c r="AG4">
         <v>1</v>
@@ -1632,10 +1662,13 @@
       <c r="AI4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1644,206 +1677,212 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1729002386830045</v>
+        <v>0.3380277035844323</v>
       </c>
       <c r="E5">
-        <v>0.180549022868768</v>
+        <v>0.4195013896586546</v>
       </c>
       <c r="F5">
-        <v>0.7375528362879883</v>
+        <v>0.6562880268323724</v>
       </c>
       <c r="G5">
-        <v>0.78029758611869</v>
+        <v>0.6562880268323724</v>
       </c>
       <c r="H5">
-        <v>0.8216713910193975</v>
+        <v>0.6562880268323724</v>
       </c>
       <c r="I5">
-        <v>0.8258163196767285</v>
+        <v>0.6562880268323724</v>
       </c>
       <c r="J5">
-        <v>0.8258163196767285</v>
+        <v>0.6650481268885271</v>
       </c>
       <c r="K5">
-        <v>0.8443608081741073</v>
+        <v>0.689811053139222</v>
       </c>
       <c r="L5">
-        <v>0.8443608081741073</v>
+        <v>0.7154370315162176</v>
       </c>
       <c r="M5">
-        <v>0.8443608081741073</v>
+        <v>0.734874954731447</v>
       </c>
       <c r="N5">
-        <v>0.8443608081741073</v>
+        <v>0.734874954731447</v>
       </c>
       <c r="O5">
-        <v>0.8685607769309016</v>
+        <v>0.8658797220143492</v>
       </c>
       <c r="P5">
-        <v>0.8983533950447625</v>
+        <v>0.8933047828395435</v>
       </c>
       <c r="Q5">
-        <v>0.8983533950447625</v>
+        <v>0.8933047828395435</v>
       </c>
       <c r="R5">
-        <v>0.8983533950447625</v>
+        <v>0.8933047828395435</v>
       </c>
       <c r="S5">
-        <v>0.8983533950447625</v>
+        <v>0.8933047828395435</v>
       </c>
       <c r="T5">
-        <v>0.8983533950447625</v>
+        <v>0.8933047828395435</v>
       </c>
       <c r="U5">
-        <v>0.8983533950447625</v>
+        <v>0.8982588146947644</v>
       </c>
       <c r="V5">
-        <v>0.8998277901271146</v>
+        <v>0.9034187156591486</v>
       </c>
       <c r="W5">
-        <v>0.9158321600470107</v>
+        <v>0.9034187156591486</v>
       </c>
       <c r="X5">
-        <v>0.9158321600470107</v>
+        <v>0.9034187156591486</v>
       </c>
       <c r="Y5">
-        <v>0.9312755481092244</v>
+        <v>0.9034187156591486</v>
       </c>
       <c r="Z5">
-        <v>0.9312755481092244</v>
+        <v>0.9034187156591486</v>
       </c>
       <c r="AA5">
-        <v>0.9674275861609367</v>
+        <v>0.9357086852431036</v>
       </c>
       <c r="AB5">
-        <v>0.9714218741428857</v>
+        <v>0.9357086852431036</v>
       </c>
       <c r="AC5">
-        <v>0.9900997006261018</v>
+        <v>0.9380158086157477</v>
       </c>
       <c r="AD5">
-        <v>0.9900997006261018</v>
+        <v>0.959420710099566</v>
       </c>
       <c r="AE5">
+        <v>0.9600393347442463</v>
+      </c>
+      <c r="AF5">
+        <v>0.9886428546958796</v>
+      </c>
+      <c r="AG5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AH5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AI5">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AJ5">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.3477066664273917</v>
+      </c>
+      <c r="E6">
+        <v>0.4458280042913378</v>
+      </c>
+      <c r="F6">
+        <v>0.6292996673843427</v>
+      </c>
+      <c r="G6">
+        <v>0.6292996673843427</v>
+      </c>
+      <c r="H6">
+        <v>0.6292996673843427</v>
+      </c>
+      <c r="I6">
+        <v>0.6292996673843427</v>
+      </c>
+      <c r="J6">
+        <v>0.6353951563763272</v>
+      </c>
+      <c r="K6">
+        <v>0.6735844883206343</v>
+      </c>
+      <c r="L6">
+        <v>0.6930384368718739</v>
+      </c>
+      <c r="M6">
+        <v>0.7211199067010209</v>
+      </c>
+      <c r="N6">
+        <v>0.7211199067010209</v>
+      </c>
+      <c r="O6">
+        <v>0.8651090221185921</v>
+      </c>
+      <c r="P6">
+        <v>0.8794633427598743</v>
+      </c>
+      <c r="Q6">
+        <v>0.8794633427598743</v>
+      </c>
+      <c r="R6">
+        <v>0.8794633427598743</v>
+      </c>
+      <c r="S6">
+        <v>0.8794633427598743</v>
+      </c>
+      <c r="T6">
+        <v>0.8794633427598743</v>
+      </c>
+      <c r="U6">
+        <v>0.8904467337244488</v>
+      </c>
+      <c r="V6">
+        <v>0.8975665684079103</v>
+      </c>
+      <c r="W6">
+        <v>0.8975665684079103</v>
+      </c>
+      <c r="X6">
+        <v>0.8975665684079103</v>
+      </c>
+      <c r="Y6">
+        <v>0.8975665684079103</v>
+      </c>
+      <c r="Z6">
+        <v>0.8983312619493716</v>
+      </c>
+      <c r="AA6">
+        <v>0.9362049371429524</v>
+      </c>
+      <c r="AB6">
+        <v>0.9362049371429524</v>
+      </c>
+      <c r="AC6">
+        <v>0.9362049371429524</v>
+      </c>
+      <c r="AD6">
+        <v>0.964837716913662</v>
+      </c>
+      <c r="AE6">
+        <v>0.964837716913662</v>
+      </c>
+      <c r="AF6">
+        <v>0.998439203631403</v>
+      </c>
+      <c r="AG6">
+        <v>0.9992372970165432</v>
+      </c>
+      <c r="AH6">
+        <v>0.9992372970165432</v>
+      </c>
+      <c r="AI6">
         <v>1</v>
       </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.03304963354092785</v>
-      </c>
-      <c r="E6">
-        <v>0.2044518627093985</v>
-      </c>
-      <c r="F6">
-        <v>0.5457098796379127</v>
-      </c>
-      <c r="G6">
-        <v>0.7114936620292041</v>
-      </c>
-      <c r="H6">
-        <v>0.7582576829327287</v>
-      </c>
-      <c r="I6">
-        <v>0.7913238459202805</v>
-      </c>
-      <c r="J6">
-        <v>0.7913238459202805</v>
-      </c>
-      <c r="K6">
-        <v>0.8550899146982031</v>
-      </c>
-      <c r="L6">
-        <v>0.8550899146982031</v>
-      </c>
-      <c r="M6">
-        <v>0.87357309525872</v>
-      </c>
-      <c r="N6">
-        <v>0.87357309525872</v>
-      </c>
-      <c r="O6">
-        <v>0.87357309525872</v>
-      </c>
-      <c r="P6">
-        <v>0.8937047540494214</v>
-      </c>
-      <c r="Q6">
-        <v>0.8937047540494214</v>
-      </c>
-      <c r="R6">
-        <v>0.8937047540494214</v>
-      </c>
-      <c r="S6">
-        <v>0.8937047540494214</v>
-      </c>
-      <c r="T6">
-        <v>0.8937047540494214</v>
-      </c>
-      <c r="U6">
-        <v>0.8937047540494214</v>
-      </c>
-      <c r="V6">
-        <v>0.8937047540494214</v>
-      </c>
-      <c r="W6">
-        <v>0.9146214687113322</v>
-      </c>
-      <c r="X6">
-        <v>0.9146214687113322</v>
-      </c>
-      <c r="Y6">
-        <v>0.9255492630389975</v>
-      </c>
-      <c r="Z6">
-        <v>0.9255492630389975</v>
-      </c>
-      <c r="AA6">
-        <v>0.9459938738260523</v>
-      </c>
-      <c r="AB6">
-        <v>0.964284568400361</v>
-      </c>
-      <c r="AC6">
-        <v>0.9801376238672739</v>
-      </c>
-      <c r="AD6">
-        <v>0.9801376238672739</v>
-      </c>
-      <c r="AE6">
-        <v>0.9897179814751956</v>
-      </c>
-      <c r="AF6">
-        <v>0.9897179814751956</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1</v>
       </c>
     </row>
@@ -1862,48 +1901,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1918,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6189759201403591</v>
+        <v>0.6424945450274524</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1930,27 +1969,27 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1959,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5656386447306766</v>
+        <v>0.5335295768534742</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -1971,21 +2010,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -2000,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7063919338685862</v>
+        <v>0.624092682389862</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2012,21 +2051,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -2041,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7375528362879883</v>
+        <v>0.6562880268323724</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2053,27 +2092,27 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2082,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5457098796379127</v>
+        <v>0.6292996673843427</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -2094,16 +2133,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2121,48 +2160,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -2171,16 +2210,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7410848598483128</v>
+        <v>0.7227623119961822</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -2189,39 +2228,39 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7401908915175625</v>
+        <v>0.7186731018087366</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -2230,21 +2269,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -2253,16 +2292,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7063919338685862</v>
+        <v>0.7033881150438342</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -2271,21 +2310,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -2294,16 +2333,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7375528362879883</v>
+        <v>0.7154370315162176</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -2312,39 +2351,39 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7114936620292041</v>
+        <v>0.7211199067010209</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -2353,16 +2392,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2380,48 +2419,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -2430,16 +2469,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8428309142500058</v>
+        <v>0.8658522855886325</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -2448,27 +2487,27 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -2477,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8206384082757682</v>
+        <v>0.8823025343825346</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -2489,21 +2528,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2518,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8404173225029611</v>
+        <v>0.8537989388250748</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -2530,21 +2569,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -2553,16 +2592,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8216713910193975</v>
+        <v>0.8658797220143492</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -2571,39 +2610,39 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8550899146982031</v>
+        <v>0.8651090221185921</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -2612,16 +2651,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2639,48 +2678,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -2689,16 +2728,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9276221480863359</v>
+        <v>0.9031313604190804</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -2707,39 +2746,39 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9120871831958848</v>
+        <v>0.900550822205631</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>63</v>
@@ -2748,21 +2787,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -2771,16 +2810,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9248133525077032</v>
+        <v>0.9371115099289411</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -2789,21 +2828,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -2812,16 +2851,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9158321600470107</v>
+        <v>0.9034187156591486</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -2830,39 +2869,39 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9146214687113322</v>
+        <v>0.9362049371429524</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>63</v>
@@ -2871,16 +2910,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
